--- a/data/loginTobeto.xlsx
+++ b/data/loginTobeto.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t xml:space="preserve">email</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">Rfv..92077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
   <si>
     <t xml:space="preserve">Ad</t>
@@ -319,15 +325,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,6 +342,14 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -368,27 +382,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -422,19 +436,19 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
+      <c r="A2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
